--- a/data/Sample-ThreeBusSystem.xlsx
+++ b/data/Sample-ThreeBusSystem.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DB417-A340-473A-9AC3-7DAD5AA1A318}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF2137-152A-4FBB-93DC-469A7FE221B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
